--- a/01_raw_data/Gender_Results.xlsx
+++ b/01_raw_data/Gender_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Documents\GitHub\parents-face-masc\01_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7468AE6-D3D4-4B7D-B04B-4EB902EE5801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A41E19-A766-4189-976C-25DB4746B5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="227">
   <si>
     <t>Gender Classification Result on Controls only</t>
   </si>
@@ -664,495 +664,6 @@
   </si>
   <si>
     <t>CO_006_FA</t>
-  </si>
-  <si>
-    <t>00033</t>
-  </si>
-  <si>
-    <t>00049</t>
-  </si>
-  <si>
-    <t>00059</t>
-  </si>
-  <si>
-    <t>00073</t>
-  </si>
-  <si>
-    <t>00079</t>
-  </si>
-  <si>
-    <t>00081</t>
-  </si>
-  <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>00091</t>
-  </si>
-  <si>
-    <t>00099</t>
-  </si>
-  <si>
-    <t>00106</t>
-  </si>
-  <si>
-    <t>00110</t>
-  </si>
-  <si>
-    <t>00184</t>
-  </si>
-  <si>
-    <t>00187</t>
-  </si>
-  <si>
-    <t>00190</t>
-  </si>
-  <si>
-    <t>00194</t>
-  </si>
-  <si>
-    <t>00203</t>
-  </si>
-  <si>
-    <t>00206</t>
-  </si>
-  <si>
-    <t>00209</t>
-  </si>
-  <si>
-    <t>00213</t>
-  </si>
-  <si>
-    <t>00215</t>
-  </si>
-  <si>
-    <t>00230</t>
-  </si>
-  <si>
-    <t>00232</t>
-  </si>
-  <si>
-    <t>00240</t>
-  </si>
-  <si>
-    <t>00241</t>
-  </si>
-  <si>
-    <t>00245</t>
-  </si>
-  <si>
-    <t>00257</t>
-  </si>
-  <si>
-    <t>00273</t>
-  </si>
-  <si>
-    <t>00280</t>
-  </si>
-  <si>
-    <t>00288</t>
-  </si>
-  <si>
-    <t>00292</t>
-  </si>
-  <si>
-    <t>00300</t>
-  </si>
-  <si>
-    <t>00302</t>
-  </si>
-  <si>
-    <t>00307</t>
-  </si>
-  <si>
-    <t>00312</t>
-  </si>
-  <si>
-    <t>00315</t>
-  </si>
-  <si>
-    <t>00320</t>
-  </si>
-  <si>
-    <t>00322</t>
-  </si>
-  <si>
-    <t>00324</t>
-  </si>
-  <si>
-    <t>00331</t>
-  </si>
-  <si>
-    <t>00340</t>
-  </si>
-  <si>
-    <t>00343</t>
-  </si>
-  <si>
-    <t>00344</t>
-  </si>
-  <si>
-    <t>00348</t>
-  </si>
-  <si>
-    <t>00353</t>
-  </si>
-  <si>
-    <t>00356</t>
-  </si>
-  <si>
-    <t>00358</t>
-  </si>
-  <si>
-    <t>00363</t>
-  </si>
-  <si>
-    <t>00365</t>
-  </si>
-  <si>
-    <t>00378</t>
-  </si>
-  <si>
-    <t>00393</t>
-  </si>
-  <si>
-    <t>00398</t>
-  </si>
-  <si>
-    <t>00405</t>
-  </si>
-  <si>
-    <t>00406</t>
-  </si>
-  <si>
-    <t>00412</t>
-  </si>
-  <si>
-    <t>00416</t>
-  </si>
-  <si>
-    <t>00429</t>
-  </si>
-  <si>
-    <t>00434</t>
-  </si>
-  <si>
-    <t>00438</t>
-  </si>
-  <si>
-    <t>00445</t>
-  </si>
-  <si>
-    <t>00453</t>
-  </si>
-  <si>
-    <t>00462</t>
-  </si>
-  <si>
-    <t>00465</t>
-  </si>
-  <si>
-    <t>00475</t>
-  </si>
-  <si>
-    <t>00479</t>
-  </si>
-  <si>
-    <t>00488</t>
-  </si>
-  <si>
-    <t>00492</t>
-  </si>
-  <si>
-    <t>00495</t>
-  </si>
-  <si>
-    <t>00501</t>
-  </si>
-  <si>
-    <t>00505</t>
-  </si>
-  <si>
-    <t>00508</t>
-  </si>
-  <si>
-    <t>00509</t>
-  </si>
-  <si>
-    <t>00513</t>
-  </si>
-  <si>
-    <t>00521</t>
-  </si>
-  <si>
-    <t>00527</t>
-  </si>
-  <si>
-    <t>00529</t>
-  </si>
-  <si>
-    <t>00540</t>
-  </si>
-  <si>
-    <t>00543</t>
-  </si>
-  <si>
-    <t>00545</t>
-  </si>
-  <si>
-    <t>00546</t>
-  </si>
-  <si>
-    <t>00550</t>
-  </si>
-  <si>
-    <t>00554</t>
-  </si>
-  <si>
-    <t>00560</t>
-  </si>
-  <si>
-    <t>00566</t>
-  </si>
-  <si>
-    <t>00572</t>
-  </si>
-  <si>
-    <t>00573</t>
-  </si>
-  <si>
-    <t>00574</t>
-  </si>
-  <si>
-    <t>00581</t>
-  </si>
-  <si>
-    <t>00597</t>
-  </si>
-  <si>
-    <t>00609</t>
-  </si>
-  <si>
-    <t>00614</t>
-  </si>
-  <si>
-    <t>00620</t>
-  </si>
-  <si>
-    <t>00632</t>
-  </si>
-  <si>
-    <t>00635</t>
-  </si>
-  <si>
-    <t>00642</t>
-  </si>
-  <si>
-    <t>00645</t>
-  </si>
-  <si>
-    <t>00655</t>
-  </si>
-  <si>
-    <t>00661</t>
-  </si>
-  <si>
-    <t>00685</t>
-  </si>
-  <si>
-    <t>00701</t>
-  </si>
-  <si>
-    <t>00723</t>
-  </si>
-  <si>
-    <t>00728</t>
-  </si>
-  <si>
-    <t>00741</t>
-  </si>
-  <si>
-    <t>00746</t>
-  </si>
-  <si>
-    <t>00761</t>
-  </si>
-  <si>
-    <t>00767</t>
-  </si>
-  <si>
-    <t>00780</t>
-  </si>
-  <si>
-    <t>00787</t>
-  </si>
-  <si>
-    <t>00790</t>
-  </si>
-  <si>
-    <t>00816</t>
-  </si>
-  <si>
-    <t>00822</t>
-  </si>
-  <si>
-    <t>00831</t>
-  </si>
-  <si>
-    <t>00836</t>
-  </si>
-  <si>
-    <t>00854</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>00023</t>
-  </si>
-  <si>
-    <t>00028</t>
-  </si>
-  <si>
-    <t>00038</t>
-  </si>
-  <si>
-    <t>00064</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>00074</t>
-  </si>
-  <si>
-    <t>00077</t>
-  </si>
-  <si>
-    <t>00089</t>
-  </si>
-  <si>
-    <t>00111</t>
-  </si>
-  <si>
-    <t>00113</t>
-  </si>
-  <si>
-    <t>00191</t>
-  </si>
-  <si>
-    <t>00202</t>
-  </si>
-  <si>
-    <t>00212</t>
-  </si>
-  <si>
-    <t>00221</t>
-  </si>
-  <si>
-    <t>00256</t>
-  </si>
-  <si>
-    <t>00264</t>
-  </si>
-  <si>
-    <t>00279</t>
-  </si>
-  <si>
-    <t>00314</t>
-  </si>
-  <si>
-    <t>00336</t>
-  </si>
-  <si>
-    <t>00362</t>
-  </si>
-  <si>
-    <t>00368</t>
-  </si>
-  <si>
-    <t>00381</t>
-  </si>
-  <si>
-    <t>00404</t>
-  </si>
-  <si>
-    <t>00433</t>
-  </si>
-  <si>
-    <t>00444</t>
-  </si>
-  <si>
-    <t>00448</t>
-  </si>
-  <si>
-    <t>00461</t>
-  </si>
-  <si>
-    <t>00474</t>
-  </si>
-  <si>
-    <t>00477</t>
-  </si>
-  <si>
-    <t>00497</t>
-  </si>
-  <si>
-    <t>00500</t>
-  </si>
-  <si>
-    <t>00504</t>
-  </si>
-  <si>
-    <t>00535</t>
-  </si>
-  <si>
-    <t>00547</t>
-  </si>
-  <si>
-    <t>00553</t>
-  </si>
-  <si>
-    <t>00559</t>
-  </si>
-  <si>
-    <t>00569</t>
-  </si>
-  <si>
-    <t>00571</t>
-  </si>
-  <si>
-    <t>00586</t>
-  </si>
-  <si>
-    <t>00608</t>
-  </si>
-  <si>
-    <t>00617</t>
-  </si>
-  <si>
-    <t>00625</t>
-  </si>
-  <si>
-    <t>00630</t>
-  </si>
-  <si>
-    <t>00638</t>
-  </si>
-  <si>
-    <t>00654</t>
-  </si>
-  <si>
-    <t>00684</t>
-  </si>
-  <si>
-    <t>00793</t>
-  </si>
-  <si>
-    <t>00835</t>
   </si>
   <si>
     <t>Sno</t>
@@ -1201,7 +712,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,6 +732,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1274,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1335,6 +852,9 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1839,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1410,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>377</v>
+        <v>214</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>15</v>
@@ -1899,48 +1419,48 @@
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>378</v>
+        <v>215</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>379</v>
+        <v>216</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>380</v>
+        <v>217</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>381</v>
+        <v>218</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>382</v>
+        <v>219</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>383</v>
+        <v>220</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>384</v>
+        <v>221</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>385</v>
+        <v>222</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>386</v>
+        <v>223</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>389</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>214</v>
+      <c r="B3" s="17">
+        <v>33</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>17</v>
@@ -1986,8 +1506,8 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>215</v>
+      <c r="B4" s="17">
+        <v>49</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
@@ -2033,8 +1553,8 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>216</v>
+      <c r="B5" s="17">
+        <v>59</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>17</v>
@@ -2080,8 +1600,8 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>217</v>
+      <c r="B6" s="17">
+        <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
@@ -2127,8 +1647,8 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>218</v>
+      <c r="B7" s="17">
+        <v>79</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>17</v>
@@ -2174,8 +1694,8 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>219</v>
+      <c r="B8" s="17">
+        <v>81</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
@@ -2221,8 +1741,8 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>220</v>
+      <c r="B9" s="17">
+        <v>83</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>17</v>
@@ -2268,8 +1788,8 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>221</v>
+      <c r="B10" s="17">
+        <v>91</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>17</v>
@@ -2315,8 +1835,8 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>222</v>
+      <c r="B11" s="17">
+        <v>99</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>17</v>
@@ -2362,8 +1882,8 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>223</v>
+      <c r="B12" s="17">
+        <v>106</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
@@ -2409,8 +1929,8 @@
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>224</v>
+      <c r="B13" s="17">
+        <v>110</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>17</v>
@@ -2456,8 +1976,8 @@
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>225</v>
+      <c r="B14" s="17">
+        <v>184</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
@@ -2503,8 +2023,8 @@
       <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>226</v>
+      <c r="B15" s="17">
+        <v>187</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>17</v>
@@ -2550,8 +2070,8 @@
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>227</v>
+      <c r="B16" s="17">
+        <v>190</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>17</v>
@@ -2597,8 +2117,8 @@
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>228</v>
+      <c r="B17" s="17">
+        <v>194</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
@@ -2644,8 +2164,8 @@
       <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>229</v>
+      <c r="B18" s="17">
+        <v>203</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>17</v>
@@ -2691,8 +2211,8 @@
       <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>230</v>
+      <c r="B19" s="17">
+        <v>206</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>17</v>
@@ -2738,8 +2258,8 @@
       <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>231</v>
+      <c r="B20" s="17">
+        <v>209</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -2785,8 +2305,8 @@
       <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>232</v>
+      <c r="B21" s="17">
+        <v>213</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>17</v>
@@ -2832,8 +2352,8 @@
       <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>233</v>
+      <c r="B22" s="17">
+        <v>215</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>17</v>
@@ -2879,8 +2399,8 @@
       <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>234</v>
+      <c r="B23" s="17">
+        <v>230</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
@@ -2926,8 +2446,8 @@
       <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>235</v>
+      <c r="B24" s="17">
+        <v>232</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>17</v>
@@ -2973,8 +2493,8 @@
       <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>236</v>
+      <c r="B25" s="17">
+        <v>240</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>17</v>
@@ -3020,8 +2540,8 @@
       <c r="A26" s="13">
         <v>24</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>237</v>
+      <c r="B26" s="17">
+        <v>241</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>17</v>
@@ -3067,8 +2587,8 @@
       <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>238</v>
+      <c r="B27" s="17">
+        <v>245</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
@@ -3114,8 +2634,8 @@
       <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>239</v>
+      <c r="B28" s="17">
+        <v>257</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>17</v>
@@ -3161,8 +2681,8 @@
       <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>240</v>
+      <c r="B29" s="17">
+        <v>273</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>17</v>
@@ -3208,8 +2728,8 @@
       <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>241</v>
+      <c r="B30" s="17">
+        <v>280</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>17</v>
@@ -3255,8 +2775,8 @@
       <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>242</v>
+      <c r="B31" s="17">
+        <v>288</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>17</v>
@@ -3302,8 +2822,8 @@
       <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>243</v>
+      <c r="B32" s="17">
+        <v>292</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>17</v>
@@ -3349,8 +2869,8 @@
       <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>244</v>
+      <c r="B33" s="24">
+        <v>300</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>17</v>
@@ -3396,8 +2916,8 @@
       <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>245</v>
+      <c r="B34" s="17">
+        <v>302</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>17</v>
@@ -3443,8 +2963,8 @@
       <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>246</v>
+      <c r="B35" s="17">
+        <v>307</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>17</v>
@@ -3490,8 +3010,8 @@
       <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>247</v>
+      <c r="B36" s="17">
+        <v>312</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>17</v>
@@ -3537,8 +3057,8 @@
       <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>248</v>
+      <c r="B37" s="17">
+        <v>315</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>17</v>
@@ -3584,8 +3104,8 @@
       <c r="A38" s="13">
         <v>36</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>249</v>
+      <c r="B38" s="17">
+        <v>320</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>17</v>
@@ -3631,8 +3151,8 @@
       <c r="A39" s="13">
         <v>37</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>250</v>
+      <c r="B39" s="17">
+        <v>322</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>17</v>
@@ -3678,8 +3198,8 @@
       <c r="A40" s="13">
         <v>38</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>251</v>
+      <c r="B40" s="17">
+        <v>324</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>17</v>
@@ -3725,8 +3245,8 @@
       <c r="A41" s="13">
         <v>39</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>252</v>
+      <c r="B41" s="17">
+        <v>331</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>17</v>
@@ -3772,8 +3292,8 @@
       <c r="A42" s="13">
         <v>40</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>253</v>
+      <c r="B42" s="17">
+        <v>340</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>17</v>
@@ -3819,8 +3339,8 @@
       <c r="A43" s="13">
         <v>41</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>254</v>
+      <c r="B43" s="17">
+        <v>343</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>17</v>
@@ -3866,8 +3386,8 @@
       <c r="A44" s="13">
         <v>42</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>255</v>
+      <c r="B44" s="17">
+        <v>344</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>17</v>
@@ -3913,8 +3433,8 @@
       <c r="A45" s="13">
         <v>43</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>256</v>
+      <c r="B45" s="17">
+        <v>348</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>17</v>
@@ -3960,8 +3480,8 @@
       <c r="A46" s="13">
         <v>44</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>257</v>
+      <c r="B46" s="17">
+        <v>353</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>17</v>
@@ -4007,8 +3527,8 @@
       <c r="A47" s="13">
         <v>45</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>258</v>
+      <c r="B47" s="17">
+        <v>356</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>17</v>
@@ -4054,8 +3574,8 @@
       <c r="A48" s="13">
         <v>46</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>259</v>
+      <c r="B48" s="17">
+        <v>358</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>17</v>
@@ -4101,8 +3621,8 @@
       <c r="A49" s="13">
         <v>47</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>260</v>
+      <c r="B49" s="17">
+        <v>363</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>17</v>
@@ -4148,8 +3668,8 @@
       <c r="A50" s="13">
         <v>48</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>261</v>
+      <c r="B50" s="17">
+        <v>365</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>17</v>
@@ -4195,8 +3715,8 @@
       <c r="A51" s="13">
         <v>49</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>262</v>
+      <c r="B51" s="17">
+        <v>378</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>17</v>
@@ -4242,8 +3762,8 @@
       <c r="A52" s="13">
         <v>50</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>263</v>
+      <c r="B52" s="17">
+        <v>393</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>17</v>
@@ -4289,8 +3809,8 @@
       <c r="A53" s="13">
         <v>51</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>264</v>
+      <c r="B53" s="17">
+        <v>398</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>17</v>
@@ -4336,8 +3856,8 @@
       <c r="A54" s="13">
         <v>52</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>265</v>
+      <c r="B54" s="17">
+        <v>405</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>17</v>
@@ -4383,8 +3903,8 @@
       <c r="A55" s="13">
         <v>53</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>266</v>
+      <c r="B55" s="17">
+        <v>406</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>17</v>
@@ -4430,8 +3950,8 @@
       <c r="A56" s="13">
         <v>54</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>267</v>
+      <c r="B56" s="17">
+        <v>412</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>17</v>
@@ -4477,8 +3997,8 @@
       <c r="A57" s="13">
         <v>55</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>268</v>
+      <c r="B57" s="17">
+        <v>416</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>17</v>
@@ -4524,8 +4044,8 @@
       <c r="A58" s="13">
         <v>56</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>269</v>
+      <c r="B58" s="17">
+        <v>429</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>17</v>
@@ -4571,8 +4091,8 @@
       <c r="A59" s="13">
         <v>57</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>270</v>
+      <c r="B59" s="17">
+        <v>434</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>17</v>
@@ -4618,8 +4138,8 @@
       <c r="A60" s="13">
         <v>58</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>271</v>
+      <c r="B60" s="17">
+        <v>438</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>17</v>
@@ -4665,8 +4185,8 @@
       <c r="A61" s="13">
         <v>59</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>272</v>
+      <c r="B61" s="17">
+        <v>445</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>17</v>
@@ -4712,8 +4232,8 @@
       <c r="A62" s="13">
         <v>60</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>273</v>
+      <c r="B62" s="17">
+        <v>453</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>17</v>
@@ -4759,8 +4279,8 @@
       <c r="A63" s="13">
         <v>61</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>274</v>
+      <c r="B63" s="17">
+        <v>462</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>17</v>
@@ -4806,8 +4326,8 @@
       <c r="A64" s="13">
         <v>62</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>275</v>
+      <c r="B64" s="17">
+        <v>465</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>17</v>
@@ -4853,8 +4373,8 @@
       <c r="A65" s="13">
         <v>63</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>276</v>
+      <c r="B65" s="17">
+        <v>475</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>17</v>
@@ -4900,8 +4420,8 @@
       <c r="A66" s="13">
         <v>64</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>277</v>
+      <c r="B66" s="17">
+        <v>479</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>17</v>
@@ -4947,8 +4467,8 @@
       <c r="A67" s="13">
         <v>65</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>278</v>
+      <c r="B67" s="17">
+        <v>488</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>17</v>
@@ -4994,8 +4514,8 @@
       <c r="A68" s="13">
         <v>66</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>279</v>
+      <c r="B68" s="17">
+        <v>492</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>17</v>
@@ -5041,8 +4561,8 @@
       <c r="A69" s="13">
         <v>67</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>280</v>
+      <c r="B69" s="17">
+        <v>495</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>17</v>
@@ -5088,8 +4608,8 @@
       <c r="A70" s="13">
         <v>68</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>281</v>
+      <c r="B70" s="17">
+        <v>501</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>17</v>
@@ -5135,8 +4655,8 @@
       <c r="A71" s="13">
         <v>69</v>
       </c>
-      <c r="B71" s="17" t="s">
-        <v>282</v>
+      <c r="B71" s="17">
+        <v>505</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>17</v>
@@ -5182,8 +4702,8 @@
       <c r="A72" s="13">
         <v>70</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>283</v>
+      <c r="B72" s="17">
+        <v>508</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>17</v>
@@ -5229,8 +4749,8 @@
       <c r="A73" s="13">
         <v>71</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>284</v>
+      <c r="B73" s="17">
+        <v>509</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>17</v>
@@ -5276,8 +4796,8 @@
       <c r="A74" s="13">
         <v>72</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>285</v>
+      <c r="B74" s="17">
+        <v>513</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>17</v>
@@ -5323,8 +4843,8 @@
       <c r="A75" s="13">
         <v>73</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>286</v>
+      <c r="B75" s="17">
+        <v>521</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>17</v>
@@ -5370,8 +4890,8 @@
       <c r="A76" s="13">
         <v>74</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>287</v>
+      <c r="B76" s="17">
+        <v>527</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>17</v>
@@ -5417,8 +4937,8 @@
       <c r="A77" s="13">
         <v>75</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>288</v>
+      <c r="B77" s="17">
+        <v>529</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>17</v>
@@ -5464,8 +4984,8 @@
       <c r="A78" s="13">
         <v>76</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>289</v>
+      <c r="B78" s="17">
+        <v>540</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>17</v>
@@ -5511,8 +5031,8 @@
       <c r="A79" s="13">
         <v>77</v>
       </c>
-      <c r="B79" s="17" t="s">
-        <v>290</v>
+      <c r="B79" s="17">
+        <v>543</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>17</v>
@@ -5558,8 +5078,8 @@
       <c r="A80" s="13">
         <v>78</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>291</v>
+      <c r="B80" s="17">
+        <v>545</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>17</v>
@@ -5605,8 +5125,8 @@
       <c r="A81" s="13">
         <v>79</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>292</v>
+      <c r="B81" s="17">
+        <v>546</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>17</v>
@@ -5652,8 +5172,8 @@
       <c r="A82" s="13">
         <v>80</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>293</v>
+      <c r="B82" s="17">
+        <v>550</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>17</v>
@@ -5699,8 +5219,8 @@
       <c r="A83" s="13">
         <v>81</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>294</v>
+      <c r="B83" s="17">
+        <v>554</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>17</v>
@@ -5746,8 +5266,8 @@
       <c r="A84" s="13">
         <v>82</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>295</v>
+      <c r="B84" s="17">
+        <v>560</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>17</v>
@@ -5793,8 +5313,8 @@
       <c r="A85" s="13">
         <v>83</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>296</v>
+      <c r="B85" s="17">
+        <v>566</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>17</v>
@@ -5840,8 +5360,8 @@
       <c r="A86" s="13">
         <v>84</v>
       </c>
-      <c r="B86" s="17" t="s">
-        <v>297</v>
+      <c r="B86" s="17">
+        <v>572</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>17</v>
@@ -5887,8 +5407,8 @@
       <c r="A87" s="13">
         <v>85</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>298</v>
+      <c r="B87" s="17">
+        <v>573</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>17</v>
@@ -5934,8 +5454,8 @@
       <c r="A88" s="13">
         <v>86</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>299</v>
+      <c r="B88" s="17">
+        <v>574</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>17</v>
@@ -5981,8 +5501,8 @@
       <c r="A89" s="13">
         <v>87</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>300</v>
+      <c r="B89" s="17">
+        <v>581</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>17</v>
@@ -6028,8 +5548,8 @@
       <c r="A90" s="13">
         <v>88</v>
       </c>
-      <c r="B90" s="17" t="s">
-        <v>301</v>
+      <c r="B90" s="17">
+        <v>597</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>17</v>
@@ -6075,8 +5595,8 @@
       <c r="A91" s="13">
         <v>89</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>302</v>
+      <c r="B91" s="17">
+        <v>609</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>17</v>
@@ -6122,8 +5642,8 @@
       <c r="A92" s="13">
         <v>90</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>303</v>
+      <c r="B92" s="17">
+        <v>614</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>17</v>
@@ -6169,8 +5689,8 @@
       <c r="A93" s="13">
         <v>91</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>304</v>
+      <c r="B93" s="17">
+        <v>620</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>17</v>
@@ -6216,8 +5736,8 @@
       <c r="A94" s="13">
         <v>92</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>305</v>
+      <c r="B94" s="17">
+        <v>632</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>17</v>
@@ -6263,8 +5783,8 @@
       <c r="A95" s="13">
         <v>93</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>306</v>
+      <c r="B95" s="17">
+        <v>635</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>17</v>
@@ -6310,8 +5830,8 @@
       <c r="A96" s="13">
         <v>94</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>307</v>
+      <c r="B96" s="17">
+        <v>642</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>17</v>
@@ -6357,8 +5877,8 @@
       <c r="A97" s="13">
         <v>95</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>308</v>
+      <c r="B97" s="17">
+        <v>645</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>17</v>
@@ -6404,8 +5924,8 @@
       <c r="A98" s="13">
         <v>96</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>309</v>
+      <c r="B98" s="17">
+        <v>655</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>17</v>
@@ -6451,8 +5971,8 @@
       <c r="A99" s="13">
         <v>97</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>310</v>
+      <c r="B99" s="17">
+        <v>661</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>17</v>
@@ -6498,8 +6018,8 @@
       <c r="A100" s="13">
         <v>98</v>
       </c>
-      <c r="B100" s="17" t="s">
-        <v>311</v>
+      <c r="B100" s="17">
+        <v>685</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>17</v>
@@ -6545,8 +6065,8 @@
       <c r="A101" s="13">
         <v>99</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>312</v>
+      <c r="B101" s="17">
+        <v>701</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>17</v>
@@ -6592,8 +6112,8 @@
       <c r="A102" s="13">
         <v>100</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>313</v>
+      <c r="B102" s="17">
+        <v>723</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>17</v>
@@ -6639,8 +6159,8 @@
       <c r="A103" s="13">
         <v>101</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>314</v>
+      <c r="B103" s="17">
+        <v>728</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>17</v>
@@ -6686,8 +6206,8 @@
       <c r="A104" s="13">
         <v>102</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>315</v>
+      <c r="B104" s="17">
+        <v>741</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>17</v>
@@ -6733,8 +6253,8 @@
       <c r="A105" s="13">
         <v>103</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>316</v>
+      <c r="B105" s="17">
+        <v>746</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>17</v>
@@ -6780,8 +6300,8 @@
       <c r="A106" s="13">
         <v>104</v>
       </c>
-      <c r="B106" s="17" t="s">
-        <v>317</v>
+      <c r="B106" s="17">
+        <v>761</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>17</v>
@@ -6827,8 +6347,8 @@
       <c r="A107" s="13">
         <v>105</v>
       </c>
-      <c r="B107" s="17" t="s">
-        <v>318</v>
+      <c r="B107" s="17">
+        <v>767</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>17</v>
@@ -6874,8 +6394,8 @@
       <c r="A108" s="13">
         <v>106</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>319</v>
+      <c r="B108" s="17">
+        <v>780</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>17</v>
@@ -6921,8 +6441,8 @@
       <c r="A109" s="13">
         <v>107</v>
       </c>
-      <c r="B109" s="17" t="s">
-        <v>320</v>
+      <c r="B109" s="17">
+        <v>787</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>17</v>
@@ -6968,8 +6488,8 @@
       <c r="A110" s="13">
         <v>108</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>321</v>
+      <c r="B110" s="17">
+        <v>790</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>17</v>
@@ -7015,8 +6535,8 @@
       <c r="A111" s="13">
         <v>109</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>322</v>
+      <c r="B111" s="17">
+        <v>816</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>17</v>
@@ -7062,8 +6582,8 @@
       <c r="A112" s="13">
         <v>110</v>
       </c>
-      <c r="B112" s="17" t="s">
-        <v>323</v>
+      <c r="B112" s="17">
+        <v>822</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>17</v>
@@ -7109,8 +6629,8 @@
       <c r="A113" s="13">
         <v>111</v>
       </c>
-      <c r="B113" s="17" t="s">
-        <v>324</v>
+      <c r="B113" s="17">
+        <v>831</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>17</v>
@@ -7156,8 +6676,8 @@
       <c r="A114" s="13">
         <v>112</v>
       </c>
-      <c r="B114" s="17" t="s">
-        <v>325</v>
+      <c r="B114" s="17">
+        <v>836</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>17</v>
@@ -7203,8 +6723,8 @@
       <c r="A115" s="13">
         <v>113</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>326</v>
+      <c r="B115" s="17">
+        <v>854</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>17</v>
@@ -7250,8 +6770,8 @@
       <c r="A116" s="13">
         <v>114</v>
       </c>
-      <c r="B116" s="17" t="s">
-        <v>327</v>
+      <c r="B116" s="17">
+        <v>1</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>18</v>
@@ -7297,8 +6817,8 @@
       <c r="A117" s="13">
         <v>115</v>
       </c>
-      <c r="B117" s="17" t="s">
-        <v>328</v>
+      <c r="B117" s="17">
+        <v>9</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>18</v>
@@ -7344,8 +6864,8 @@
       <c r="A118" s="13">
         <v>116</v>
       </c>
-      <c r="B118" s="17" t="s">
-        <v>329</v>
+      <c r="B118" s="17">
+        <v>23</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>18</v>
@@ -7391,8 +6911,8 @@
       <c r="A119" s="13">
         <v>117</v>
       </c>
-      <c r="B119" s="17" t="s">
-        <v>330</v>
+      <c r="B119" s="17">
+        <v>28</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>18</v>
@@ -7438,8 +6958,8 @@
       <c r="A120" s="13">
         <v>118</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>331</v>
+      <c r="B120" s="17">
+        <v>38</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>18</v>
@@ -7485,8 +7005,8 @@
       <c r="A121" s="13">
         <v>119</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>332</v>
+      <c r="B121" s="17">
+        <v>64</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>18</v>
@@ -7532,8 +7052,8 @@
       <c r="A122" s="13">
         <v>120</v>
       </c>
-      <c r="B122" s="17" t="s">
-        <v>333</v>
+      <c r="B122" s="17">
+        <v>67</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>18</v>
@@ -7579,8 +7099,8 @@
       <c r="A123" s="13">
         <v>121</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>334</v>
+      <c r="B123" s="17">
+        <v>74</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>18</v>
@@ -7626,8 +7146,8 @@
       <c r="A124" s="13">
         <v>122</v>
       </c>
-      <c r="B124" s="17" t="s">
-        <v>335</v>
+      <c r="B124" s="17">
+        <v>77</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>18</v>
@@ -7673,8 +7193,8 @@
       <c r="A125" s="13">
         <v>123</v>
       </c>
-      <c r="B125" s="17" t="s">
-        <v>336</v>
+      <c r="B125" s="17">
+        <v>89</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>18</v>
@@ -7720,8 +7240,8 @@
       <c r="A126" s="13">
         <v>124</v>
       </c>
-      <c r="B126" s="17" t="s">
-        <v>337</v>
+      <c r="B126" s="17">
+        <v>111</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>18</v>
@@ -7767,8 +7287,8 @@
       <c r="A127" s="13">
         <v>125</v>
       </c>
-      <c r="B127" s="17" t="s">
-        <v>338</v>
+      <c r="B127" s="17">
+        <v>113</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>18</v>
@@ -7814,8 +7334,8 @@
       <c r="A128" s="13">
         <v>126</v>
       </c>
-      <c r="B128" s="17" t="s">
-        <v>339</v>
+      <c r="B128" s="17">
+        <v>191</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>18</v>
@@ -7861,8 +7381,8 @@
       <c r="A129" s="13">
         <v>127</v>
       </c>
-      <c r="B129" s="17" t="s">
-        <v>340</v>
+      <c r="B129" s="17">
+        <v>202</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>18</v>
@@ -7908,8 +7428,8 @@
       <c r="A130" s="13">
         <v>128</v>
       </c>
-      <c r="B130" s="17" t="s">
-        <v>341</v>
+      <c r="B130" s="17">
+        <v>212</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>18</v>
@@ -7955,8 +7475,8 @@
       <c r="A131" s="13">
         <v>129</v>
       </c>
-      <c r="B131" s="17" t="s">
-        <v>342</v>
+      <c r="B131" s="17">
+        <v>221</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>18</v>
@@ -8002,8 +7522,8 @@
       <c r="A132" s="13">
         <v>130</v>
       </c>
-      <c r="B132" s="17" t="s">
-        <v>343</v>
+      <c r="B132" s="17">
+        <v>256</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>18</v>
@@ -8049,8 +7569,8 @@
       <c r="A133" s="13">
         <v>131</v>
       </c>
-      <c r="B133" s="17" t="s">
-        <v>344</v>
+      <c r="B133" s="17">
+        <v>264</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>18</v>
@@ -8096,8 +7616,8 @@
       <c r="A134" s="13">
         <v>132</v>
       </c>
-      <c r="B134" s="17" t="s">
-        <v>345</v>
+      <c r="B134" s="17">
+        <v>279</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>18</v>
@@ -8143,8 +7663,8 @@
       <c r="A135" s="13">
         <v>133</v>
       </c>
-      <c r="B135" s="17" t="s">
-        <v>346</v>
+      <c r="B135" s="17">
+        <v>314</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>18</v>
@@ -8190,8 +7710,8 @@
       <c r="A136" s="13">
         <v>134</v>
       </c>
-      <c r="B136" s="17" t="s">
-        <v>347</v>
+      <c r="B136" s="17">
+        <v>336</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>18</v>
@@ -8237,8 +7757,8 @@
       <c r="A137" s="13">
         <v>135</v>
       </c>
-      <c r="B137" s="17" t="s">
-        <v>348</v>
+      <c r="B137" s="17">
+        <v>362</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>18</v>
@@ -8284,8 +7804,8 @@
       <c r="A138" s="13">
         <v>136</v>
       </c>
-      <c r="B138" s="17" t="s">
-        <v>349</v>
+      <c r="B138" s="17">
+        <v>368</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>18</v>
@@ -8331,8 +7851,8 @@
       <c r="A139" s="13">
         <v>137</v>
       </c>
-      <c r="B139" s="17" t="s">
-        <v>350</v>
+      <c r="B139" s="17">
+        <v>381</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>18</v>
@@ -8378,8 +7898,8 @@
       <c r="A140" s="13">
         <v>138</v>
       </c>
-      <c r="B140" s="17" t="s">
-        <v>351</v>
+      <c r="B140" s="17">
+        <v>404</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>18</v>
@@ -8425,8 +7945,8 @@
       <c r="A141" s="13">
         <v>139</v>
       </c>
-      <c r="B141" s="17" t="s">
-        <v>352</v>
+      <c r="B141" s="17">
+        <v>433</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>18</v>
@@ -8472,8 +7992,8 @@
       <c r="A142" s="13">
         <v>140</v>
       </c>
-      <c r="B142" s="17" t="s">
-        <v>353</v>
+      <c r="B142" s="17">
+        <v>444</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>18</v>
@@ -8519,8 +8039,8 @@
       <c r="A143" s="13">
         <v>141</v>
       </c>
-      <c r="B143" s="17" t="s">
-        <v>354</v>
+      <c r="B143" s="17">
+        <v>448</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>18</v>
@@ -8566,8 +8086,8 @@
       <c r="A144" s="13">
         <v>142</v>
       </c>
-      <c r="B144" s="17" t="s">
-        <v>355</v>
+      <c r="B144" s="17">
+        <v>461</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>18</v>
@@ -8613,8 +8133,8 @@
       <c r="A145" s="13">
         <v>143</v>
       </c>
-      <c r="B145" s="17" t="s">
-        <v>356</v>
+      <c r="B145" s="17">
+        <v>474</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>18</v>
@@ -8660,8 +8180,8 @@
       <c r="A146" s="13">
         <v>144</v>
       </c>
-      <c r="B146" s="17" t="s">
-        <v>357</v>
+      <c r="B146" s="17">
+        <v>477</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>18</v>
@@ -8707,8 +8227,8 @@
       <c r="A147" s="13">
         <v>145</v>
       </c>
-      <c r="B147" s="17" t="s">
-        <v>358</v>
+      <c r="B147" s="17">
+        <v>497</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>18</v>
@@ -8754,8 +8274,8 @@
       <c r="A148" s="13">
         <v>146</v>
       </c>
-      <c r="B148" s="17" t="s">
-        <v>359</v>
+      <c r="B148" s="24">
+        <v>500</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>18</v>
@@ -8801,8 +8321,8 @@
       <c r="A149" s="13">
         <v>147</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>360</v>
+      <c r="B149" s="17">
+        <v>504</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>18</v>
@@ -8848,8 +8368,8 @@
       <c r="A150" s="13">
         <v>148</v>
       </c>
-      <c r="B150" s="17" t="s">
-        <v>361</v>
+      <c r="B150" s="17">
+        <v>535</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>18</v>
@@ -8895,8 +8415,8 @@
       <c r="A151" s="13">
         <v>149</v>
       </c>
-      <c r="B151" s="17" t="s">
-        <v>362</v>
+      <c r="B151" s="17">
+        <v>547</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>18</v>
@@ -8942,8 +8462,8 @@
       <c r="A152" s="13">
         <v>150</v>
       </c>
-      <c r="B152" s="17" t="s">
-        <v>363</v>
+      <c r="B152" s="17">
+        <v>553</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>18</v>
@@ -8989,8 +8509,8 @@
       <c r="A153" s="13">
         <v>151</v>
       </c>
-      <c r="B153" s="17" t="s">
-        <v>364</v>
+      <c r="B153" s="17">
+        <v>559</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>18</v>
@@ -9036,8 +8556,8 @@
       <c r="A154" s="13">
         <v>152</v>
       </c>
-      <c r="B154" s="17" t="s">
-        <v>365</v>
+      <c r="B154" s="17">
+        <v>569</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>18</v>
@@ -9083,8 +8603,8 @@
       <c r="A155" s="13">
         <v>153</v>
       </c>
-      <c r="B155" s="17" t="s">
-        <v>366</v>
+      <c r="B155" s="17">
+        <v>571</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>18</v>
@@ -9130,8 +8650,8 @@
       <c r="A156" s="13">
         <v>154</v>
       </c>
-      <c r="B156" s="17" t="s">
-        <v>367</v>
+      <c r="B156" s="17">
+        <v>586</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>18</v>
@@ -9177,8 +8697,8 @@
       <c r="A157" s="13">
         <v>155</v>
       </c>
-      <c r="B157" s="17" t="s">
-        <v>368</v>
+      <c r="B157" s="17">
+        <v>608</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>18</v>
@@ -9224,8 +8744,8 @@
       <c r="A158" s="13">
         <v>156</v>
       </c>
-      <c r="B158" s="17" t="s">
-        <v>369</v>
+      <c r="B158" s="17">
+        <v>617</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>18</v>
@@ -9271,8 +8791,8 @@
       <c r="A159" s="13">
         <v>157</v>
       </c>
-      <c r="B159" s="17" t="s">
-        <v>370</v>
+      <c r="B159" s="17">
+        <v>625</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>18</v>
@@ -9318,8 +8838,8 @@
       <c r="A160" s="13">
         <v>158</v>
       </c>
-      <c r="B160" s="17" t="s">
-        <v>371</v>
+      <c r="B160" s="17">
+        <v>630</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>18</v>
@@ -9365,8 +8885,8 @@
       <c r="A161" s="13">
         <v>159</v>
       </c>
-      <c r="B161" s="17" t="s">
-        <v>372</v>
+      <c r="B161" s="17">
+        <v>638</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>18</v>
@@ -9412,8 +8932,8 @@
       <c r="A162" s="13">
         <v>160</v>
       </c>
-      <c r="B162" s="17" t="s">
-        <v>373</v>
+      <c r="B162" s="17">
+        <v>654</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>18</v>
@@ -9459,8 +8979,8 @@
       <c r="A163" s="13">
         <v>161</v>
       </c>
-      <c r="B163" s="17" t="s">
-        <v>374</v>
+      <c r="B163" s="17">
+        <v>684</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>18</v>
@@ -9506,8 +9026,8 @@
       <c r="A164" s="13">
         <v>162</v>
       </c>
-      <c r="B164" s="17" t="s">
-        <v>375</v>
+      <c r="B164" s="17">
+        <v>793</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>18</v>
@@ -9553,8 +9073,8 @@
       <c r="A165" s="13">
         <v>163</v>
       </c>
-      <c r="B165" s="17" t="s">
-        <v>376</v>
+      <c r="B165" s="17">
+        <v>835</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>18</v>
@@ -18668,10 +18188,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:B358" numberStoredAsText="1"/>
+    <ignoredError sqref="B166:B358" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
